--- a/JS单元测试发现问题.xlsx
+++ b/JS单元测试发现问题.xlsx
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>检视时间</t>
-  </si>
-  <si>
-    <t>检视需求</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>单元测试</t>
   </si>
@@ -52,10 +46,28 @@
 测试-验证JSON格式，必须包含title,url,content,all</t>
   </si>
   <si>
-    <t>JSON数据不包含title,url,content，搜索结果显示不正常；不包含all，不会被搜索出来</t>
-  </si>
-  <si>
-    <t>增加JSON数据是否包含title,url,content,all的验证</t>
+    <t>JSON数据不包含title,搜索结果标题显示为“{title}”</t>
+  </si>
+  <si>
+    <t>验证JSON数据是否包含title字段</t>
+  </si>
+  <si>
+    <t>JSON数据不包含content,搜索结果文本显示为“{content}”</t>
+  </si>
+  <si>
+    <t>验证JSON数据是否包含content字段</t>
+  </si>
+  <si>
+    <t>JSON数据不包含url,搜索结果链接失效</t>
+  </si>
+  <si>
+    <t>验证JSON数据是否包含url字段</t>
+  </si>
+  <si>
+    <t>JSON数据不包含all，不会被搜索出来</t>
+  </si>
+  <si>
+    <t>验证JSON数据是否包含all字段</t>
   </si>
   <si>
     <t>ContentJekyllSearch:搜索
@@ -108,14 +120,98 @@
   <si>
     <t>搜索按钮绑定事件时作处理，避免重复绑定</t>
   </si>
+  <si>
+    <t>ContentJekyllSearch:init-isJSON(json)</t>
+  </si>
+  <si>
+    <t>内部方法无法测试</t>
+  </si>
+  <si>
+    <t>重新定义方法访问范围</t>
+  </si>
+  <si>
+    <t>返回结果类型不统一</t>
+  </si>
+  <si>
+    <t>返回结果改为bool型</t>
+  </si>
+  <si>
+    <t>ContentJekyllSearch:init-validateOptions(_opt)
+测试-不含必要参数"searchInput"</t>
+  </si>
+  <si>
+    <t>初始化不含参数"searchInput"，页面顶部搜索功能无法使用，搜索页面使用回车键无效</t>
+  </si>
+  <si>
+    <t>初始化时验证是否包含参数"searchInput"</t>
+  </si>
+  <si>
+    <t>ContentJekyllSearch:init-validateOptions(_opt)
+测试-不含必要参数"resultsContainer"</t>
+  </si>
+  <si>
+    <t>初始化不含参数"resultsContainer"，搜索结果无法显示</t>
+  </si>
+  <si>
+    <t>初始化时验证是否包含参数"resultsContainer"</t>
+  </si>
+  <si>
+    <t>ContentJekyllSearch:init-validateOptions(_opt)
+测试-不含必要参数"dataSource"</t>
+  </si>
+  <si>
+    <t>初始化不含参数"dataSource"，搜索功能无法使用</t>
+  </si>
+  <si>
+    <t>初始化时验证是否包含参数"dataSource"</t>
+  </si>
+  <si>
+    <t>ContentJekyllSearch:init-validateOptions(_opt)
+包含参数"searchButton"时必须包含"afterInit"</t>
+  </si>
+  <si>
+    <t>初始化包含参数"searchButton"，需要在初始化后立即搜索</t>
+  </si>
+  <si>
+    <t>初始化时验证在包含参数"searchButton"时是否包含"afterInit"</t>
+  </si>
+  <si>
+    <t>ContentJekyllSearch:init-validateOptions(_opt)
+测试-不包含参数"searchButton"时必须包含"afterRender"</t>
+  </si>
+  <si>
+    <t>初始化不含参数"searchButton"，需要在搜索结果最后加上跳转链接</t>
+  </si>
+  <si>
+    <t>初始化时验证在不含参数"searchButton"时是否包含"afterRender"</t>
+  </si>
+  <si>
+    <t>ContentJekyllSearch:init-validateOptions(_opt)
+测试-不包含参数"searchButton"时"isLimit"必须为true</t>
+  </si>
+  <si>
+    <t>不包含参数"searchButton"时且"isLimit"为false,页面顶端搜索结果不限制显示数量</t>
+  </si>
+  <si>
+    <t>初始化时验证在不包含参数"searchButton"时"isLimit"是否为true</t>
+  </si>
+  <si>
+    <t>ContentJekyllSearch:init-validateOptions(_opt)
+测试-包含参数"searchButton"时"isLimit"必须为false</t>
+  </si>
+  <si>
+    <t>包含参数"searchButton"时且"isLimit"为true,搜索页面搜索结果会限制显示数量</t>
+  </si>
+  <si>
+    <t>初始化时验证在包含参数"searchButton"时"isLimit"是否为false</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -202,7 +298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,23 +307,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,19 +336,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3347639484979"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3648068669528"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2446351931331"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6952789699571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5836909871245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1502145922747"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0815450643777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6480686695279"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="12.2660944206009"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,343 +360,335 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -639,7 +714,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5836909871245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.2660944206009"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -665,7 +740,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5836909871245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.2660944206009"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/JS单元测试发现问题.xlsx
+++ b/JS单元测试发现问题.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
